--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/151.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/151.xlsx
@@ -479,13 +479,13 @@
         <v>-14.40292686973128</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.282052659537623</v>
+        <v>-14.13818416807645</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.143173412121124</v>
+        <v>0.09067457564270266</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.783825074895738</v>
+        <v>-8.254071225010975</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.15776664619095</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.962747668884644</v>
+        <v>-14.58096585018362</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.156985791619145</v>
+        <v>0.0255010920965903</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.78301335211955</v>
+        <v>-8.32601342912626</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.87368335730274</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.64369143198566</v>
+        <v>-14.92364378476296</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.033040960616525</v>
+        <v>0.2124984535849637</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.161168244046086</v>
+        <v>-8.046872440237818</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.57463033244208</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.33656228297549</v>
+        <v>-15.37924283135219</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.986785854676706</v>
+        <v>0.1802782962914759</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.715846655187617</v>
+        <v>-8.04164861140397</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.28038046358892</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.13908117026477</v>
+        <v>-16.00398133835367</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.039652573551596</v>
+        <v>0.1610457034169803</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.538105551808344</v>
+        <v>-8.054806375759904</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.01343665192903</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.83280302093931</v>
+        <v>-16.60761505317429</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.01358579859372</v>
+        <v>0.2866008876691333</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.890730453193514</v>
+        <v>-7.825049553190453</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.76673665502114</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.63977329119478</v>
+        <v>-17.23718461992437</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.999092619347929</v>
+        <v>0.3340343008647068</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.486309218412597</v>
+        <v>-7.911223090494695</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.55754086325579</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.26451179819626</v>
+        <v>-17.7733275135959</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.008623815816705</v>
+        <v>0.3861023892662514</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.22138647041027</v>
+        <v>-7.671673225399632</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.36637166517071</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.20480098828903</v>
+        <v>-18.57087132580532</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.959881172336959</v>
+        <v>0.5811646093051281</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.036195846714054</v>
+        <v>-7.531899800261366</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-12.19897276552179</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.84938742639857</v>
+        <v>-19.25025710486818</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.932217136432392</v>
+        <v>0.6795270805550161</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.921520366123375</v>
+        <v>-7.547767671305538</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.05096309941008</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.61700223431181</v>
+        <v>-20.06162638887847</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.857983779319805</v>
+        <v>0.7366226132477834</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.528332327180658</v>
+        <v>-7.393762912978314</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.91567918344956</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.20362904774103</v>
+        <v>-20.77437135558203</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.826274221837145</v>
+        <v>0.76450921830066</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.282655264355668</v>
+        <v>-7.077858737710305</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-11.81167850685172</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.18995077462531</v>
+        <v>-21.82519885856749</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.633071108801793</v>
+        <v>0.973842048437018</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.922040874883166</v>
+        <v>-6.684998006338631</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-11.72770654714415</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.97463794544416</v>
+        <v>-22.56055423227872</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.490417377038346</v>
+        <v>1.185963539078664</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.718481750300008</v>
+        <v>-6.297740780583216</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-11.67771500086082</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.85209717419948</v>
+        <v>-23.63378266542637</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.183337413885661</v>
+        <v>1.462512252004444</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.339904721328658</v>
+        <v>-5.830096815379602</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-11.64761079310092</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.69543786174927</v>
+        <v>-24.65572854834299</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.042647527548473</v>
+        <v>1.60068841619602</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.151336283499277</v>
+        <v>-5.42602907277541</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-11.63142169474607</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.37704933229521</v>
+        <v>-25.42920870792932</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.8452025083924019</v>
+        <v>1.678770910344075</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.128241461286472</v>
+        <v>-5.016606578308953</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.62325194990488</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.05976055627985</v>
+        <v>-26.23760603919454</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5619243518059749</v>
+        <v>1.920271528562554</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.8110935172485</v>
+        <v>-4.382939120769412</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-11.59991959287228</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.59956929474706</v>
+        <v>-26.81459691773225</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.174405279993725</v>
+        <v>2.082092391686288</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.533575973912433</v>
+        <v>-3.793955692828681</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-11.56447748733379</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.31388533779164</v>
+        <v>-27.61545308256063</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05821875689806374</v>
+        <v>2.145275845200458</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.636206535888723</v>
+        <v>-3.586508154301531</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.49740456689826</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.00552551231434</v>
+        <v>-28.31765874547661</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4418755993720044</v>
+        <v>2.328515715773256</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.710426800698468</v>
+        <v>-3.20171228148036</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-11.40308244347039</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.32623456272526</v>
+        <v>-28.71531125968835</v>
       </c>
       <c r="F23" t="n">
-        <v>0.653525767111348</v>
+        <v>2.529299272153967</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.566280546411064</v>
+        <v>-2.892144780787747</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.28067633389511</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.79941657203093</v>
+        <v>-29.20303881745117</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7250359252328559</v>
+        <v>2.539616006793247</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.765375195725193</v>
+        <v>-2.796649523860197</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-11.12682034577884</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.14315498314044</v>
+        <v>-29.63479678056562</v>
       </c>
       <c r="F25" t="n">
-        <v>1.107422814331149</v>
+        <v>2.721232431813671</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.839634737443463</v>
+        <v>-2.542501741096611</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.95999997289656</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.18330907595602</v>
+        <v>-29.89821391374115</v>
       </c>
       <c r="F26" t="n">
-        <v>1.209791530250605</v>
+        <v>2.696592717865543</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.072363512757986</v>
+        <v>-2.405333684223847</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.77528226990652</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.26465155351166</v>
+        <v>-29.78069740343381</v>
       </c>
       <c r="F27" t="n">
-        <v>1.289667669887976</v>
+        <v>2.767736291507482</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.087812430111223</v>
+        <v>-2.313216241429462</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.5887724155697</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.17413137166397</v>
+        <v>-29.685058131175</v>
       </c>
       <c r="F28" t="n">
-        <v>1.358376075201355</v>
+        <v>2.763284908541295</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.013565980695794</v>
+        <v>-2.021297164967496</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.39726782036158</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.14405835203652</v>
+        <v>-29.72472780878543</v>
       </c>
       <c r="F29" t="n">
-        <v>1.456306500457465</v>
+        <v>2.716021695282664</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.227022886227296</v>
+        <v>-2.074124606933861</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-10.20181154529462</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.07697339227552</v>
+        <v>-29.53674852458393</v>
       </c>
       <c r="F30" t="n">
-        <v>1.438055830296099</v>
+        <v>2.617358101067417</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.483867683376277</v>
+        <v>-2.326688221053598</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-10.00614049770912</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.73496316514111</v>
+        <v>-29.19467283593531</v>
       </c>
       <c r="F31" t="n">
-        <v>1.494902609234874</v>
+        <v>2.63725840138684</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.64347594731976</v>
+        <v>-2.457611249470859</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.794194134177594</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.37255513017929</v>
+        <v>-28.83212078564223</v>
       </c>
       <c r="F32" t="n">
-        <v>1.49919688456696</v>
+        <v>2.714686280392808</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.875615569006405</v>
+        <v>-2.788270450041493</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.568881725096562</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.18686699897509</v>
+        <v>-28.54140620104171</v>
       </c>
       <c r="F33" t="n">
-        <v>1.44845111875243</v>
+        <v>2.691172504489068</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.974973055272264</v>
+        <v>-2.826643989670592</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.313297230065542</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.59297395746871</v>
+        <v>-27.89586402482472</v>
       </c>
       <c r="F34" t="n">
-        <v>1.237102073978446</v>
+        <v>2.60198773753123</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.039099154591039</v>
+        <v>-3.054515520630834</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.025371183310115</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.2023912867915</v>
+        <v>-27.40664394453794</v>
       </c>
       <c r="F35" t="n">
-        <v>1.155838150239852</v>
+        <v>2.558914061181951</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.039845415853017</v>
+        <v>-3.17872219769029</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.703220707231944</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.66246471759872</v>
+        <v>-26.78241603734728</v>
       </c>
       <c r="F36" t="n">
-        <v>1.046779267568274</v>
+        <v>2.559202091844469</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.812864161486012</v>
+        <v>-3.223969196311295</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.340887868183719</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.01109646661716</v>
+        <v>-26.09915493664328</v>
       </c>
       <c r="F37" t="n">
-        <v>0.990718026800003</v>
+        <v>2.623590037220078</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.812707053851911</v>
+        <v>-3.315039254878341</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.955949669358809</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.55281349794538</v>
+        <v>-25.57461182328953</v>
       </c>
       <c r="F38" t="n">
-        <v>0.834238823235693</v>
+        <v>2.626522713056625</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.56041837809185</v>
+        <v>-3.449916158753803</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.550633545315385</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.07154044548353</v>
+        <v>-24.89334075261747</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7332447991146182</v>
+        <v>2.728668859827772</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.327336110600601</v>
+        <v>-3.572433928746676</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.146671693211993</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.53031773830942</v>
+        <v>-24.32082744165163</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6520594291930748</v>
+        <v>2.808924676247552</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.521377131017823</v>
+        <v>-3.760622689793646</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.755250824663181</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.83422618082053</v>
+        <v>-23.6684641756541</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6421747405475716</v>
+        <v>2.942623272867259</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.309150901953443</v>
+        <v>-3.801104090180263</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.387446379930772</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.15142331071598</v>
+        <v>-22.97307960251867</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5187928785671451</v>
+        <v>3.015311738244522</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.42745295043128</v>
+        <v>-4.268027978727582</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.059276887759409</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.53980329116191</v>
+        <v>-22.44212126077246</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4260600975391994</v>
+        <v>3.076478977121067</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.51597000994419</v>
+        <v>-4.473066533531854</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.768948858033468</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.84525662540834</v>
+        <v>-21.56264581737952</v>
       </c>
       <c r="F44" t="n">
-        <v>0.436114986121645</v>
+        <v>3.095724662298404</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.23152663840485</v>
+        <v>-4.599446532863035</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.528126965579172</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.37454906133976</v>
+        <v>-21.01469366654475</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4445987983630835</v>
+        <v>3.125077605269554</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.200275311521649</v>
+        <v>-4.732320314403713</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.33010295406941</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.80529573378152</v>
+        <v>-20.43027945229579</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3651677970223314</v>
+        <v>3.274486965299332</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.154609359209709</v>
+        <v>-5.013346594901363</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.176466765634198</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.36847104946732</v>
+        <v>-20.05988511260052</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2847810575741334</v>
+        <v>3.341702848088753</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.087629137871438</v>
+        <v>-5.094518872520065</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.064806263731645</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.8306654333349</v>
+        <v>-19.30493056153522</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2814425203494932</v>
+        <v>3.426200570629253</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.171904291263629</v>
+        <v>-5.261720672111749</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.984481819861925</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.28004245272043</v>
+        <v>-18.80052340995204</v>
       </c>
       <c r="F49" t="n">
-        <v>0.16574584013716</v>
+        <v>3.379958556992277</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.104243270177588</v>
+        <v>-5.330638554270594</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.937668913286196</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.6906531633916</v>
+        <v>-18.271371805998</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.01813555327488268</v>
+        <v>3.297162833821201</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.94147976124925</v>
+        <v>-5.383465996236959</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.911250230227973</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.99627669757498</v>
+        <v>-17.60950352813738</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.007399864944667308</v>
+        <v>3.39386258261019</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.857558100033786</v>
+        <v>-5.405068295925807</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.906345594097183</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.35128439807734</v>
+        <v>-17.06262494613564</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.05474163202034877</v>
+        <v>3.358749026388681</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.798132137435192</v>
+        <v>-5.428660625646597</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.915752532348112</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.67801272444158</v>
+        <v>-16.46881045844631</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1631666564773399</v>
+        <v>3.506194540992199</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.824329835421485</v>
+        <v>-5.551977026112816</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.93636583087762</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.19656947204279</v>
+        <v>-15.80982248721087</v>
       </c>
       <c r="F54" t="n">
-        <v>0.03987644061680552</v>
+        <v>3.415543436116088</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.956143140431983</v>
+        <v>-5.735243081291297</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.970343260492391</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.59716457104004</v>
+        <v>-15.18969247080968</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.1288964353158852</v>
+        <v>3.442042257067742</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.066013745879748</v>
+        <v>-5.92056462801593</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.011109645023894</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.28685080908545</v>
+        <v>-14.83147397275721</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.07746986975358522</v>
+        <v>3.446912593724864</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.213223599032117</v>
+        <v>-6.073142325333405</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.064855253696068</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.64513158529825</v>
+        <v>-14.1828812899781</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.2119801891494789</v>
+        <v>3.378727880525154</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.397510853832252</v>
+        <v>-6.270417144552534</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.125250711113475</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.18328751025352</v>
+        <v>-13.71479218647787</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.21479503426045</v>
+        <v>3.375140589546521</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.696159373954866</v>
+        <v>-6.620256568786296</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.195755992943656</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.599763572597789</v>
+        <v>-13.14748961204304</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.2273374603828235</v>
+        <v>3.28009047091559</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.801604781042127</v>
+        <v>-6.686123944383019</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.275018257613241</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.339396945984383</v>
+        <v>-12.68602521378072</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.350287276369473</v>
+        <v>3.158908115812574</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.924593873937302</v>
+        <v>-6.781265709133843</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.35652446967662</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.914394611136272</v>
+        <v>-12.33289962153368</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.4620300811236051</v>
+        <v>3.021019982283515</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.026373436228881</v>
+        <v>-6.918211196858298</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.441096766280575</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.503531963357224</v>
+        <v>-11.87859671292579</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.6233796213450371</v>
+        <v>2.753177650747483</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.311798730481351</v>
+        <v>-7.10209259027034</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.516944859053942</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.121760412492492</v>
+        <v>-11.60407730694048</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7095400663464363</v>
+        <v>2.649041473944393</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.326121709790199</v>
+        <v>-7.216087271113249</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.584379563351872</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.893404466327105</v>
+        <v>-11.2724623682624</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7253162912707163</v>
+        <v>2.536002531208931</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.42617308810667</v>
+        <v>-7.21154424202717</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.63649726094662</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.799545747254771</v>
+        <v>-11.22872098446819</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8777630655597746</v>
+        <v>2.30358797116261</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.566666589901232</v>
+        <v>-7.190308526817891</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.670605093002329</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.616240415167765</v>
+        <v>-10.94455255128852</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9653898484794472</v>
+        <v>2.209349575307865</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.684942453773385</v>
+        <v>-7.280082447403606</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.689523899145692</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.520011989281078</v>
+        <v>-10.79052160835562</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.118425776396383</v>
+        <v>1.904377472912698</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.52948444983073</v>
+        <v>-7.1300053799289</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.688908492009891</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.460716949710901</v>
+        <v>-10.68948830732602</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.289201774663858</v>
+        <v>1.653712242705011</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.396073883873542</v>
+        <v>-7.095546438849477</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.677474588587347</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.29118472021339</v>
+        <v>-10.46424832923696</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.34883721410792</v>
+        <v>1.50063703787955</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.348954685946169</v>
+        <v>-6.948218754971534</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.652394322464779</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.337321995427632</v>
+        <v>-10.40772885786923</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.604215673338629</v>
+        <v>1.234431244198734</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.348771393706385</v>
+        <v>-6.757136594996542</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.618589160296141</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.323706000472237</v>
+        <v>-10.2154422060328</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.555787245127084</v>
+        <v>1.214923712964562</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.297960166377647</v>
+        <v>-6.51568834598943</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.577928238712332</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.444822894061045</v>
+        <v>-10.26080703537938</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.632495047476757</v>
+        <v>1.098336756158991</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.256915796968835</v>
+        <v>-6.403775341298355</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.527474814561148</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.641364544321037</v>
+        <v>-10.37707977691675</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.645770642558267</v>
+        <v>0.9913333650335641</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.172234782188551</v>
+        <v>-6.212706273626205</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.47423934584356</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.171943209284828</v>
+        <v>-10.59383594276437</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.634550539022908</v>
+        <v>0.8402350979372035</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.252359675579914</v>
+        <v>-6.042035013781464</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.413039063030816</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.628550363192867</v>
+        <v>-10.74844294702231</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.711114326041322</v>
+        <v>0.7748914144541488</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.212310321187075</v>
+        <v>-5.871625599993558</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.348582462957365</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.977826818404434</v>
+        <v>-10.91619462333334</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.768262227945457</v>
+        <v>0.7155963748839713</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.121633031705279</v>
+        <v>-5.66570986089889</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.278743810475418</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.736224645117099</v>
+        <v>-11.38828997150314</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.769231058355744</v>
+        <v>0.6977253815050153</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.035328571372621</v>
+        <v>-5.497185738720192</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.200786795398367</v>
       </c>
       <c r="E78" t="n">
-        <v>-10.58671373001847</v>
+        <v>-11.96833135660298</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.951292621672787</v>
+        <v>0.5307723356673244</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.051117888599743</v>
+        <v>-5.341151673452501</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.117806470928688</v>
       </c>
       <c r="E79" t="n">
-        <v>-11.47081075631455</v>
+        <v>-12.59216649470838</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.925553154285954</v>
+        <v>0.5376719792649141</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.923991628006583</v>
+        <v>-4.989662619060681</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.022676419502861</v>
       </c>
       <c r="E80" t="n">
-        <v>-11.99146545572431</v>
+        <v>-12.89902388871276</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.917016972833148</v>
+        <v>0.4470077820859611</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.870784509257808</v>
+        <v>-4.745910124753425</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.918967040756011</v>
       </c>
       <c r="E81" t="n">
-        <v>-12.83180800592334</v>
+        <v>-13.43146166068007</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.925461508166062</v>
+        <v>0.3968904468078337</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.695360743481521</v>
+        <v>-4.458861384948581</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.801583878354847</v>
       </c>
       <c r="E82" t="n">
-        <v>-13.8190985632179</v>
+        <v>-14.27905734665342</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.907276299518904</v>
+        <v>0.3929627559553159</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.488868943061817</v>
+        <v>-4.19975161940798</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.672141960832932</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.81901010045189</v>
+        <v>-14.9553795268513</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.972318860036599</v>
+        <v>0.3038303582088448</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.441396252957718</v>
+        <v>-3.913841909950366</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.533215481354165</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.85458507062673</v>
+        <v>-15.80547584266742</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.981850056505376</v>
+        <v>0.2167796366142082</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.315762514888515</v>
+        <v>-3.749166924807136</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.381810132648623</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.93138770245018</v>
+        <v>-16.70100244934433</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.945230885457068</v>
+        <v>0.1764553438616919</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.092460197620035</v>
+        <v>-3.519344640723476</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.224770197577866</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.2329982663689</v>
+        <v>-17.84708954780618</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.000532772660519</v>
+        <v>0.05646438831727246</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.013906380569678</v>
+        <v>-3.36873078883226</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.059561298893303</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.51864931312356</v>
+        <v>-19.04769299530099</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.803297230349916</v>
+        <v>0.09313592857694716</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.743471773070985</v>
+        <v>-3.139419104559428</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.891613676396079</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.01906649569389</v>
+        <v>-20.37614278004525</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.722936675507401</v>
+        <v>0.1415381721828085</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.643682240811349</v>
+        <v>-3.130071200330435</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.723016972023963</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.60497641582069</v>
+        <v>-21.74475974990792</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.761807722644486</v>
+        <v>-0.0042315276569696</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.602101086986027</v>
+        <v>-3.080451372560293</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.554459599797326</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.38639369428299</v>
+        <v>-23.25754915866369</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.496479113254065</v>
+        <v>0.05095252882090578</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.576702019473078</v>
+        <v>-3.08262469483202</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.393853483733374</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.19598560846069</v>
+        <v>-24.70735149844791</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.42559738566896</v>
+        <v>0.01235642004349733</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.477004133333335</v>
+        <v>-3.160510804437449</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.240619467079517</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.23327885366168</v>
+        <v>-26.50733366233978</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.369130283512596</v>
+        <v>-0.1433372453503091</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.689858792934117</v>
+        <v>-3.299773629764889</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.103844498252877</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.12033792375387</v>
+        <v>-28.16958480033669</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.457974650596549</v>
+        <v>-0.3643615019243285</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.597597334808473</v>
+        <v>-3.309619041501866</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.985507612632522</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.20565373577831</v>
+        <v>-29.90292714276417</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.228178551118573</v>
+        <v>-0.3477211850124947</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.758724305881596</v>
+        <v>-3.466857598630997</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.891111598610162</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.15601409011025</v>
+        <v>-31.698444831387</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.294281588166448</v>
+        <v>-0.536067053693566</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.633038198601026</v>
+        <v>-3.448764036103731</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.827334540571925</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.36312759547127</v>
+        <v>-33.79800506890324</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.270204843240514</v>
+        <v>-0.6521957798996761</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.814183300719148</v>
+        <v>-3.645397332483615</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.790733626089138</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.68521770438833</v>
+        <v>-35.85024972394949</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.206078743921739</v>
+        <v>-0.7245700300087379</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.035220649596009</v>
+        <v>-3.823622851068032</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.788686388952536</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.00957278169701</v>
+        <v>-37.9815195189484</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.120546729456743</v>
+        <v>-0.8421650941331215</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.150301991574781</v>
+        <v>-4.090548721405143</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.808723804958782</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.1099971112008</v>
+        <v>-40.05011646024396</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.276070194913607</v>
+        <v>-0.9643162796464256</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.426837612197719</v>
+        <v>-4.437324546773941</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.856165082295059</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.51509242013441</v>
+        <v>-42.32874012372648</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.102963766740305</v>
+        <v>-0.9412738266449877</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.573078634939799</v>
+        <v>-4.479285377381673</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.908057327930195</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.75234440663709</v>
+        <v>-44.45495628982848</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.162546836973</v>
+        <v>-1.164733251547568</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.067090498066649</v>
+        <v>-4.826637264075508</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.977379199801437</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.09581424609468</v>
+        <v>-46.79172287023112</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.309717413216843</v>
+        <v>-1.299557786211663</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.380939181788506</v>
+        <v>-5.041324846074132</v>
       </c>
     </row>
   </sheetData>
